--- a/student_db/people_db.xlsx
+++ b/student_db/people_db.xlsx
@@ -13,14 +13,14 @@
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
-      <loext:extCalcPr stringRefSyntax="CalcA1ExcelA1"/>
+      <loext:extCalcPr stringRefSyntax="ExcelA1"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="53">
   <si>
     <t xml:space="preserve">name</t>
   </si>
@@ -31,16 +31,154 @@
     <t xml:space="preserve">roll_no</t>
   </si>
   <si>
-    <t xml:space="preserve">Ronit Sarkar</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ronit.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ashutosh Panda</t>
-  </si>
-  <si>
     <t xml:space="preserve">panda.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IAN_SOMERHALDER.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KEERTHY_SURESH.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DUA_LIPA.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MOHANLAL.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VIKRAM.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RANVEER_SINGH.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NINA_DOBREV.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SELENA_GOMEZ.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EMINEM.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VIJAY_DEVARAKONDA.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PITBULL.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ALLU_ARJUN.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TAYLOR_SWIFT.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M_S_DHONI.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SAMANTHA.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VIJAY.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JENIFER_LOPEZ.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DULQUER_SALMAN.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MAHESH_BABU.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MANOJ_KUMAR.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SHARUKH_KHAN.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HARISH_KALYAN.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SUSHANT_SINGH.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RAJINIKANTH.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SURYA.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KAMAL_HASSAN.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MESSI.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RONALDO.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KANE_WILLIAMSON.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BECKY_G.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MADONNNA_SEBASTIAN.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SURESH_RAINA.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DAVID_WARNER.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DEEPIKA_PADUKONE.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AAMIR_KHAN.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ANIRUDH.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AJITH_KUMAR.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PAUL_WESLEY.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SHAWN_MENDES.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MODI.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KARTHI.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SCARLETT_JOHANSSON.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NAYANTHARA.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JOS_BUTTLER.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ANUSHKA_SHARMA.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DHANUSH.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">STEVE_SMITH.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">image097.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NANI.png</t>
   </si>
 </sst>
 </file>
@@ -52,10 +190,10 @@
   </numFmts>
   <fonts count="5">
     <font>
-      <sz val="10"/>
+      <sz val="11"/>
       <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <charset val="1"/>
     </font>
     <font>
@@ -74,10 +212,11 @@
       <family val="0"/>
     </font>
     <font>
+      <b val="true"/>
       <sz val="11"/>
       <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <charset val="1"/>
     </font>
   </fonts>
@@ -89,12 +228,19 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
   </borders>
@@ -128,8 +274,8 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -149,53 +295,735 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:D51"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F8" activeCellId="0" sqref="F8"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="14.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="8.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="17.42"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="12.68"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="12.78"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="5" style="0" width="8.53"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
+    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="s">
+    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" s="0" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="C2" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" s="0" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="0" t="n">
+      <c r="C3" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" s="0" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" s="0" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" s="0" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7" s="0" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8" s="0" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="D9" s="0" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="D10" s="0" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" s="0" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" s="0" t="n">
+      <c r="C11" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="D11" s="0" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="C12" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="D12" s="0" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="1" t="n">
         <v>11</v>
+      </c>
+      <c r="B13" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="C13" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="D13" s="0" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="C14" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="D14" s="0" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="C15" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="D15" s="0" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="C16" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="D16" s="0" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="C17" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="D17" s="0" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="C18" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="D18" s="0" t="n">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="C19" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="D19" s="0" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="C20" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="D20" s="0" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="C21" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="D21" s="0" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="C22" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="D22" s="0" t="n">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="C23" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="D23" s="0" t="n">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="D24" s="0" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" s="0" t="n">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="C26" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="D26" s="0" t="n">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="C27" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="D27" s="0" t="n">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="C28" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="D28" s="0" t="n">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="C29" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="D29" s="0" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="C30" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="D30" s="0" t="n">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="C31" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="D31" s="0" t="n">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="C32" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="D32" s="0" t="n">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="C33" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="D33" s="0" t="n">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="C34" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="D34" s="0" t="n">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="C35" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="D35" s="0" t="n">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="C36" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="D36" s="0" t="n">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="C37" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="D37" s="0" t="n">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="C38" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="D38" s="0" t="n">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="1" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="C39" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="D39" s="0" t="n">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="1" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="C40" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="D40" s="0" t="n">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="1" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="C41" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="D41" s="0" t="n">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="C42" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="D42" s="0" t="n">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="1" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="C43" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="D43" s="0" t="n">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="C44" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="D44" s="0" t="n">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="1" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="C45" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="D45" s="0" t="n">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="1" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="C46" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="D46" s="0" t="n">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="1" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="C47" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="D47" s="0" t="n">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="1" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="C48" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="D48" s="0" t="n">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="1" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="C49" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="D49" s="0" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="1" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="C50" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="D50" s="0" t="n">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="1" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="C51" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="D51" s="0" t="n">
+        <v>52</v>
       </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
